--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Scn8a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.0069787647804</v>
+        <v>0.03538133333333333</v>
       </c>
       <c r="H2">
-        <v>3.0069787647804</v>
+        <v>0.106144</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0113454327482436</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01134543274824361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.84236280719623</v>
+        <v>0.8653686666666666</v>
       </c>
       <c r="N2">
-        <v>0.84236280719623</v>
+        <v>2.596106</v>
       </c>
       <c r="O2">
-        <v>0.737063571501815</v>
+        <v>0.7337618712085689</v>
       </c>
       <c r="P2">
-        <v>0.737063571501815</v>
+        <v>0.7337618712085689</v>
       </c>
       <c r="Q2">
-        <v>2.53296707347987</v>
+        <v>0.03061789725155555</v>
       </c>
       <c r="R2">
-        <v>2.53296707347987</v>
+        <v>0.275561075264</v>
       </c>
       <c r="S2">
-        <v>0.737063571501815</v>
+        <v>0.008324845963022203</v>
       </c>
       <c r="T2">
-        <v>0.737063571501815</v>
+        <v>0.008324845963022205</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +578,185 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.03538133333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.106144</v>
+      </c>
+      <c r="I3">
+        <v>0.0113454327482436</v>
+      </c>
+      <c r="J3">
+        <v>0.01134543274824361</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.3139903333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.941971</v>
+      </c>
+      <c r="O3">
+        <v>0.2662381287914311</v>
+      </c>
+      <c r="P3">
+        <v>0.2662381287914311</v>
+      </c>
+      <c r="Q3">
+        <v>0.01110939664711111</v>
+      </c>
+      <c r="R3">
+        <v>0.099984569824</v>
+      </c>
+      <c r="S3">
+        <v>0.0030205867852214</v>
+      </c>
+      <c r="T3">
+        <v>0.003020586785221401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3.0069787647804</v>
-      </c>
-      <c r="H3">
-        <v>3.0069787647804</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.300500359246606</v>
-      </c>
-      <c r="N3">
-        <v>0.300500359246606</v>
-      </c>
-      <c r="O3">
-        <v>0.2629364284981849</v>
-      </c>
-      <c r="P3">
-        <v>0.2629364284981849</v>
-      </c>
-      <c r="Q3">
-        <v>0.9035981990634258</v>
-      </c>
-      <c r="R3">
-        <v>0.9035981990634258</v>
-      </c>
-      <c r="S3">
-        <v>0.2629364284981849</v>
-      </c>
-      <c r="T3">
-        <v>0.2629364284981849</v>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.083171666666666</v>
+      </c>
+      <c r="H4">
+        <v>9.249514999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.9886545672517564</v>
+      </c>
+      <c r="J4">
+        <v>0.9886545672517564</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.8653686666666666</v>
+      </c>
+      <c r="N4">
+        <v>2.596106</v>
+      </c>
+      <c r="O4">
+        <v>0.7337618712085689</v>
+      </c>
+      <c r="P4">
+        <v>0.7337618712085689</v>
+      </c>
+      <c r="Q4">
+        <v>2.668080154287777</v>
+      </c>
+      <c r="R4">
+        <v>24.01272138858999</v>
+      </c>
+      <c r="S4">
+        <v>0.7254370252455468</v>
+      </c>
+      <c r="T4">
+        <v>0.7254370252455468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.083171666666666</v>
+      </c>
+      <c r="H5">
+        <v>9.249514999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.9886545672517564</v>
+      </c>
+      <c r="J5">
+        <v>0.9886545672517564</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3139903333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.941971</v>
+      </c>
+      <c r="O5">
+        <v>0.2662381287914311</v>
+      </c>
+      <c r="P5">
+        <v>0.2662381287914311</v>
+      </c>
+      <c r="Q5">
+        <v>0.9680860993405555</v>
+      </c>
+      <c r="R5">
+        <v>8.712774894064999</v>
+      </c>
+      <c r="S5">
+        <v>0.2632175420062097</v>
+      </c>
+      <c r="T5">
+        <v>0.2632175420062097</v>
       </c>
     </row>
   </sheetData>
